--- a/Documenti Controllo di Gestione e Performances/timing.xlsx
+++ b/Documenti Controllo di Gestione e Performances/timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\Documenti Controllo di Gestione e Performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF5290F4-3874-4728-9F91-4B81ADB59DB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CCC2A-382D-491C-A997-EA507D0A0583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>event</t>
   </si>
@@ -31,52 +31,16 @@
     <t>end</t>
   </si>
   <si>
-    <t>Presentazione proposta</t>
+    <t>Definizione obiettivi strategici/obiettivi operativi/indicatori/target : Piano delle performance</t>
   </si>
   <si>
-    <t xml:space="preserve">Attività di raccolta campioni di feci  </t>
+    <t>Scheda Budget (definzione/negoziazione con i dipartimenti)</t>
   </si>
   <si>
-    <t>Invio Relazione Parziale</t>
+    <t>Piano quadriennale dell'attività dell'IZSLER</t>
   </si>
   <si>
-    <t>Analisi metagenomica su pool di E.coli</t>
-  </si>
-  <si>
-    <t>Analisi genoma ceppi E.coli resistenti a Ceftiofur</t>
-  </si>
-  <si>
-    <t>Analisi dati metagenomici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editing relazione finale </t>
-  </si>
-  <si>
-    <t>Invio Relazione Finale</t>
-  </si>
-  <si>
-    <t>Sospensione per emergenza COVID-19</t>
-  </si>
-  <si>
-    <t>Approvazione CS IZSLER</t>
-  </si>
-  <si>
-    <t>Approvazione MS e Inizio Progetto</t>
-  </si>
-  <si>
-    <t>Analisi  microbiologiche isolamento, identificazione e test di suscettibilità</t>
-  </si>
-  <si>
-    <t>Analisi statistica dati  dei profili fenotipici di resistenza</t>
-  </si>
-  <si>
-    <t>Elaborazione dati genoma ceppi E.coli resistenti a Ceftiofur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approvazione richiesta proroga durata progetto </t>
-  </si>
-  <si>
-    <t>Inizio attività borsa di studio</t>
+    <t>Relazione sulla performance (anno 2021)</t>
   </si>
 </sst>
 </file>
@@ -1307,12 +1271,12 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="83.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="14.44140625" style="1"/>
@@ -1331,179 +1295,107 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44378</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>42629</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="3">
-        <v>42657</v>
+        <v>44409</v>
       </c>
       <c r="C3" s="3">
-        <v>42666</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>43084</v>
+        <v>44592</v>
       </c>
       <c r="C4" s="3">
-        <v>43093</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>43132</v>
+        <v>44562</v>
       </c>
       <c r="C5" s="3">
-        <v>43497</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>42948</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43465</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>42979</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43496</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43498</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43507</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43497</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43889</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43762</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43770</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43738</v>
-      </c>
-      <c r="C11" s="3">
-        <v>43973</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>43973</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44102</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43466</v>
-      </c>
-      <c r="C13" s="3">
-        <v>43981</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3">
-        <v>43981</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44119</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3">
-        <v>43951</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44134</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44151</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44160</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3">
-        <v>43901</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43983</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
